--- a/data/student_credits.xlsx
+++ b/data/student_credits.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="aids" sheetId="1" r:id="rId1"/>
     <sheet name="aiml" sheetId="2" r:id="rId2"/>
+    <sheet name="aids_courses" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>REGISTER NUMBER</t>
   </si>
@@ -60,9 +61,6 @@
     <t>MC</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>212223230232</t>
   </si>
   <si>
@@ -75,16 +73,34 @@
     <t>now</t>
   </si>
   <si>
-    <t>212223240232</t>
-  </si>
-  <si>
     <t>thilak ml</t>
   </si>
   <si>
-    <t>212223240233</t>
-  </si>
-  <si>
     <t>now ml</t>
+  </si>
+  <si>
+    <t>communicative english</t>
+  </si>
+  <si>
+    <t>Mathematics for Artificial Intelligence, Linear Algebra Laboratory, Physics for Quantum Computing, Probability and Queueing Models, Transforms and Its Applications</t>
+  </si>
+  <si>
+    <t>Python Programming, Engineering Design and Modelling, Engineering Mechanics and Product Development, Digital Electronics, Basic Electrical Electronics and Measurement Engineering, Fundamentals of C Programming</t>
+  </si>
+  <si>
+    <t>Fundamentals of Web Application Development, Operating System, Computer Networks</t>
+  </si>
+  <si>
+    <t>Softskills, Creative Skills for Communication</t>
+  </si>
+  <si>
+    <t>Inplant Training</t>
+  </si>
+  <si>
+    <t>Mathematics for Artificial Intelligence, Linear Algebra Laboratory, Physics for Quantum Computing, Transforms and Its Applications</t>
+  </si>
+  <si>
+    <t>Python Programming, Engineering Design and Modelling, Engineering Mechanics and Product Development, Digital Electronics, Basic Electrical Electronics and Measurement Engineering</t>
   </si>
 </sst>
 </file>
@@ -97,7 +113,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +124,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
@@ -595,141 +618,141 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1072,18 +1095,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.575" defaultRowHeight="28.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="19.3333333333333" defaultRowHeight="28.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.425" customWidth="1"/>
+    <col min="1" max="16384" width="19.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1114,16 +1137,13 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1149,17 +1169,13 @@
       <c r="J2">
         <v>2</v>
       </c>
-      <c r="K2" s="2">
-        <f>SUM(C2:J2)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:11">
+    </row>
+    <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1184,10 +1200,6 @@
       </c>
       <c r="J3">
         <v>2</v>
-      </c>
-      <c r="K3" s="2">
-        <f>SUM(C3:J3)</f>
-        <v>85</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:3">
@@ -1220,15 +1232,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85" defaultRowHeight="27" customHeight="1" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1259,16 +1271,13 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:11">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
+    </row>
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2">
+        <v>21223240232</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1289,22 +1298,18 @@
         <v>5</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
-      <c r="K2" s="2">
-        <f>SUM(C2:J2)</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:11">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
+    </row>
+    <row r="3" customHeight="1" spans="1:10">
+      <c r="A3">
+        <v>21223240233</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1319,7 +1324,7 @@
         <v>40</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -1329,14 +1334,114 @@
       </c>
       <c r="J3">
         <v>2</v>
-      </c>
-      <c r="K3" s="2">
-        <f>SUM(C3:J3)</f>
-        <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.4" defaultRowHeight="32" customHeight="1" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="16384" width="18.4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/student_credits.xlsx
+++ b/data/student_credits.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>REGISTER NUMBER</t>
   </si>
@@ -79,28 +79,55 @@
     <t>now ml</t>
   </si>
   <si>
+    <t>communicative english, தமிழர் மரபு/ Heritage of Tamils, தமிழரும் தொழில்நுட்பமும்/ Tamils and Technology</t>
+  </si>
+  <si>
+    <t>Mathematics for Artificial Intelligence, Linear Algebra Laboratory, Physics for Quantum Computing, Probability and Queueing Models, Transforms and Its Applications, Principles of Chemistry in Engineering</t>
+  </si>
+  <si>
+    <t>Python Programming, Engineering Design and Modelling, Engineering Mechanics and Product Development, Digital Electronics, Basic Electrical Electronics and Measurement Engineering, Fundamentals of C Programming,Advanced C Programming</t>
+  </si>
+  <si>
+    <t>Fundamentals of Web Application Development, Operating System, Computer Networks,Database Management System and its Applications,Statistics and Numerical Methods,Introduction to Data Science,Introduction to Machine Learning</t>
+  </si>
+  <si>
+    <t>Ethical Hacking Techniques</t>
+  </si>
+  <si>
+    <t>Softskills, Creative Skills for Communication</t>
+  </si>
+  <si>
+    <t>Inplant Training, Environmental Science</t>
+  </si>
+  <si>
     <t>communicative english</t>
   </si>
   <si>
-    <t>Mathematics for Artificial Intelligence, Linear Algebra Laboratory, Physics for Quantum Computing, Probability and Queueing Models, Transforms and Its Applications</t>
+    <t>Mathematics for Artificial Intelligence, Linear Algebra Laboratory, Physics for Quantum Computing, Transforms and Its Applications</t>
+  </si>
+  <si>
+    <t>Python Programming, Engineering Design and Modelling, Engineering Mechanics and Product Development, Digital Electronics, Basic Electrical Electronics and Measurement Engineering</t>
+  </si>
+  <si>
+    <t>Fundamentals of Web Application Development, Operating System, Computer Networks</t>
+  </si>
+  <si>
+    <t>Inplant Training</t>
+  </si>
+  <si>
+    <t>212223230030</t>
+  </si>
+  <si>
+    <t>bharath</t>
+  </si>
+  <si>
+    <t>Mathematics for Artificial Intelligence, Linear Algebra Laboratory, Physics for Quantum Computing, Transforms and Its Applications, Principles of Chemistry in Engineering</t>
   </si>
   <si>
     <t>Python Programming, Engineering Design and Modelling, Engineering Mechanics and Product Development, Digital Electronics, Basic Electrical Electronics and Measurement Engineering, Fundamentals of C Programming</t>
   </si>
   <si>
-    <t>Fundamentals of Web Application Development, Operating System, Computer Networks</t>
-  </si>
-  <si>
-    <t>Softskills, Creative Skills for Communication</t>
-  </si>
-  <si>
-    <t>Inplant Training</t>
-  </si>
-  <si>
-    <t>Mathematics for Artificial Intelligence, Linear Algebra Laboratory, Physics for Quantum Computing, Transforms and Its Applications</t>
-  </si>
-  <si>
-    <t>Python Programming, Engineering Design and Modelling, Engineering Mechanics and Product Development, Digital Electronics, Basic Electrical Electronics and Measurement Engineering</t>
+    <t>Theory of Computation</t>
   </si>
 </sst>
 </file>
@@ -113,7 +140,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,13 +151,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
@@ -618,141 +638,141 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1345,13 +1365,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.4" defaultRowHeight="32" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="18.4" defaultRowHeight="32" customHeight="1" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="16384" width="18.4" customWidth="1"/>
   </cols>
@@ -1407,11 +1427,14 @@
       <c r="F2" t="s">
         <v>19</v>
       </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
@@ -1422,21 +1445,47 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
         <v>21</v>
       </c>
     </row>
